--- a/INPUT/GROUP/2.group.xlsx
+++ b/INPUT/GROUP/2.group.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\งาน\port\INPUT\GROUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F1044-3C2B-42F0-950B-3A6404312342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BDA117-2D34-44DD-9BF7-02804E7EFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="บัญชีร่วม_Dec 2022_03012566" sheetId="1" r:id="rId1"/>
+    <sheet name="sheets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'บัญชีร่วม_Dec 2022_03012566'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheets!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25321,21 +25321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED9A75ED3DF70445932ADCFCEA4799C8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e4bacf7b76c6dd1a94c1bdd8f209bec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -25449,10 +25434,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF73A78-711A-4DD9-BBBF-888C18B47F2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD9D85F-628D-4CB6-899F-5D98480DD0AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25467,17 +25475,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD9D85F-628D-4CB6-899F-5D98480DD0AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF73A78-711A-4DD9-BBBF-888C18B47F2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>